--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>362</v>
+        <v>284</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>366</v>
+        <v>288</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>368</v>
+        <v>290</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>371</v>
+        <v>293</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>373</v>
+        <v>295</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>376</v>
+        <v>298</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>378</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>380</v>
+        <v>302</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>383</v>
+        <v>305</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>389</v>
+        <v>311</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>391</v>
+        <v>313</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>396</v>
+        <v>318</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_bedrooms_2.xlsx
@@ -1943,7 +1943,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/catch_04_supermarket.jpg</t>
+          <t>stimuli/catch_08.jpg</t>
         </is>
       </c>
     </row>
